--- a/Zillow_Group_Temp/Median Price and Median Property Crime.xlsx
+++ b/Zillow_Group_Temp/Median Price and Median Property Crime.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alee1\Desktop\Zillow_Group_Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Desktop\Project_Zillow\Zillow_Group_Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{384A6AE7-31B1-4539-A46C-7379BABF2152}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{16B59768-D831-403C-8751-DAA90B09BC3C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>City</t>
   </si>
@@ -73,9 +73,6 @@
     <t>La Palma</t>
   </si>
   <si>
-    <t>Laguna Beach</t>
-  </si>
-  <si>
     <t>Laguna Hills</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>Mission Viejo</t>
-  </si>
-  <si>
-    <t>Newport Beach</t>
   </si>
   <si>
     <t>Orange</t>
@@ -297,8 +291,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.5286372349805772E-2"/>
-          <c:y val="8.4680463077671339E-2"/>
+          <c:x val="6.9753782622587926E-2"/>
+          <c:y val="8.2745340884260596E-2"/>
           <c:w val="0.90963150714340124"/>
           <c:h val="0.81012925610326103"/>
         </c:manualLayout>
@@ -339,8 +333,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0365016709159812E-2"/>
-                  <c:y val="2.4011294761803702E-2"/>
+                  <c:x val="2.8033376556547973E-2"/>
+                  <c:y val="0.26494020929717316"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -363,7 +357,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{C34CABC6-DCB5-46B0-97BB-8EDC0A7CF06A}" type="CELLRANGE">
+                    <a:fld id="{3FBE85A6-A2EB-430F-8539-7008F0F502AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -413,8 +407,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="3.6265678064264111E-2"/>
-                      <c:h val="2.3981359420565233E-2"/>
+                      <c:w val="5.0135307105885513E-2"/>
+                      <c:h val="2.591651700832855E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -429,8 +423,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.5654090181967162E-3"/>
-                  <c:y val="-2.8013177222104318E-2"/>
+                  <c:x val="-4.2626416166929415E-2"/>
+                  <c:y val="-3.9624235416806909E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -438,7 +432,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08D4C594-DF17-4B74-8B5F-E48C8F8A7593}" type="CELLRANGE">
+                    <a:fld id="{BEC2BAEA-ED15-4155-BFC0-3BC66D6FEA8E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -467,8 +461,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.2067612727458952E-3"/>
-                  <c:y val="4.0018824603006171E-3"/>
+                  <c:x val="2.3925648328499107E-2"/>
+                  <c:y val="4.0018431365258884E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -476,7 +470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4FB4EBC-8483-4A32-B5D4-842860D5212F}" type="CELLRANGE">
+                    <a:fld id="{CB018836-9111-41A9-A2D4-08AFBAAB56AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -505,8 +499,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.641352254549179E-3"/>
-                  <c:y val="-1.8008471071352776E-2"/>
+                  <c:x val="1.130363476626337E-2"/>
+                  <c:y val="2.2630077806082411E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -514,7 +508,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86C4A996-6731-44A2-906C-65F0057F86BA}" type="CELLRANGE">
+                    <a:fld id="{C87702C7-9392-4C9A-8AA3-DAD2814595A0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -543,8 +537,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0182220769986674E-17"/>
-                  <c:y val="-1.0004706150751542E-2"/>
+                  <c:x val="1.1095699608250454E-2"/>
+                  <c:y val="-1.193985548078649E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -552,7 +546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DA5EF15-801C-43E4-B9EA-02E861BEE4A6}" type="CELLRANGE">
+                    <a:fld id="{00E9412F-FBDE-4906-A01D-8A8DB9107A53}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -581,8 +575,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2310083750968088E-8"/>
-                  <c:y val="1.2005726158115489E-2"/>
+                  <c:x val="1.3869624510313067E-2"/>
+                  <c:y val="2.5551881946617772E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -605,7 +599,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{366253D0-1A53-47CC-B359-4EF67024ECEE}" type="CELLRANGE">
+                    <a:fld id="{AF6DE5A3-3800-4A21-877F-0313CB73B5ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -655,8 +649,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="2.8120435190980054E-2"/>
-                      <c:h val="1.9979476960264614E-2"/>
+                      <c:w val="3.5517596549150057E-2"/>
+                      <c:h val="3.1590531129899374E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -671,8 +665,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.307849322885471E-2"/>
-                  <c:y val="-3.0014118452254629E-2"/>
+                  <c:x val="2.0208588959735173E-2"/>
+                  <c:y val="-3.0014052087501443E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -680,7 +674,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5441B47-F59F-49A6-9DDF-0F5FF03AEC62}" type="CELLRANGE">
+                    <a:fld id="{E9861721-E50E-4636-8E94-F00D317B11A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -709,8 +703,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.2067289626621444E-3"/>
-                  <c:y val="-3.9018353987931013E-2"/>
+                  <c:x val="2.1798206404329307E-2"/>
+                  <c:y val="-4.8694170684560112E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -733,7 +727,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{8F1D343D-CDB3-439F-82AE-A1BF9D31984E}" type="CELLRANGE">
+                    <a:fld id="{EB13DD8B-78FA-4EF4-8B66-DA9F3FBFF513}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -783,8 +777,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="5.1370254496836673E-2"/>
-                      <c:h val="2.1980418190414925E-2"/>
+                      <c:w val="7.6335573854075967E-2"/>
+                      <c:h val="1.8110004897355151E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -799,8 +793,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.2067612727452935E-4"/>
-                  <c:y val="-6.0028236904510722E-3"/>
+                  <c:x val="8.2178071271813997E-3"/>
+                  <c:y val="1.9154387978410119E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -808,7 +802,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C557C3E4-BEBB-4960-9010-C8B1A2CBAFF2}" type="CELLRANGE">
+                    <a:fld id="{89DEDAE9-DC6F-49D9-94BB-E327A6D721FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -837,8 +831,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0182220769986674E-17"/>
-                  <c:y val="6.0028236904509256E-3"/>
+                  <c:x val="5.547849804125227E-3"/>
+                  <c:y val="1.7613869602357314E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -846,7 +840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD0DD2AD-7465-427B-9390-EB37C94149CC}" type="CELLRANGE">
+                    <a:fld id="{F55DED9E-48D8-4833-9B50-D43775A6E887}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -875,8 +869,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.641352254549179E-3"/>
-                  <c:y val="-4.0018824603007637E-3"/>
+                  <c:x val="1.5510972620341994E-2"/>
+                  <c:y val="-4.0018431365259595E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -884,7 +878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73C93A77-5F66-4DAE-887E-48FFEF6F3567}" type="CELLRANGE">
+                    <a:fld id="{AF6D3942-863B-43CE-AAD9-288AD548E319}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -913,8 +907,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.641352254549179E-3"/>
-                  <c:y val="-6.0028236904509256E-3"/>
+                  <c:x val="1.5510972620341927E-2"/>
+                  <c:y val="-7.9380123442606022E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -922,7 +916,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAFE3DF4-5416-4B43-83ED-73EC5B0DE178}" type="CELLRANGE">
+                    <a:fld id="{9C9FD0EB-207D-46B6-9A32-5E4651C6612B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -951,8 +945,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.2005647380901704E-2"/>
+                  <c:x val="5.547849804125227E-3"/>
+                  <c:y val="2.9422224849856599E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -960,7 +954,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D01B365-3940-4287-8F61-8466DE4B2278}" type="CELLRANGE">
+                    <a:fld id="{875223EC-3AFC-4FA9-A62E-8BC25665F04C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -989,8 +983,8 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.4468402907023493E-2"/>
-                  <c:y val="-2.1009882916578241E-2"/>
+                  <c:x val="3.698216765447241E-2"/>
+                  <c:y val="0.32248298953818888"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1013,7 +1007,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{6D292732-3C41-4545-AB48-74C84AD10BE5}" type="CELLRANGE">
+                    <a:fld id="{ED80B569-899B-4D49-A0EA-9A7CDAA0188B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1063,8 +1057,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="3.172326800988301E-2"/>
-                      <c:h val="2.1980418190414925E-2"/>
+                      <c:w val="4.5592914070723148E-2"/>
+                      <c:h val="2.3915519252213177E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -1088,11 +1082,6 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF44F2C7-63B0-4F0B-AAFC-A73AD5D011BA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1104,10 +1093,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
@@ -1117,8 +1103,8 @@
               <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.559284641821722E-2"/>
-                  <c:y val="3.2015059682404791E-2"/>
+                  <c:x val="6.6445248153118031E-2"/>
+                  <c:y val="0.2216620044780172"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1141,7 +1127,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{F6330F6A-BDF2-4062-8B3C-580BD522F0BD}" type="CELLRANGE">
+                    <a:fld id="{4CD1F4EE-C711-425B-A8FB-94253C007BDE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1191,8 +1177,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="4.058657018444857E-2"/>
-                      <c:h val="1.9979476960264614E-2"/>
+                      <c:w val="5.1682298085387525E-2"/>
+                      <c:h val="1.9979502420183322E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -1207,8 +1193,8 @@
               <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.4985300527397495E-2"/>
-                  <c:y val="-2.601223599195401E-2"/>
+                  <c:x val="-2.4924244733514726E-2"/>
+                  <c:y val="-4.3428752015549639E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1231,7 +1217,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{59B8AD8D-2D6A-4A11-84A8-5B222EEDAF77}" type="CELLRANGE">
+                    <a:fld id="{25044D59-011D-4C53-A5DD-EFDE574495FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1281,8 +1267,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="4.7205290840834385E-2"/>
-                      <c:h val="2.3981359420565233E-2"/>
+                      <c:w val="7.4019892609062748E-2"/>
+                      <c:h val="2.3981345556709208E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -1297,8 +1283,8 @@
               <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.723419867276638E-2"/>
-                  <c:y val="3.6016942142705552E-2"/>
+                  <c:x val="-2.1862538013392132E-2"/>
+                  <c:y val="0.15793269443216112"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1306,7 +1292,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{922AEC3D-0510-4023-B4D7-59C037751071}" type="CELLRANGE">
+                    <a:fld id="{DAE63CBE-4043-483D-94B0-773CE16274E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1335,8 +1321,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5440959945512275E-2"/>
-                  <c:y val="3.801788337285586E-2"/>
+                  <c:x val="1.8043835439708233E-2"/>
+                  <c:y val="5.7369605252451494E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1344,7 +1330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0C8EF0C-3E7F-4BA4-93D4-91F9A8F10692}" type="CELLRANGE">
+                    <a:fld id="{A5F3827E-0FBA-4FE4-AC27-CBFA8CFDFE40}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1373,8 +1359,8 @@
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5965856379350451E-2"/>
-                  <c:y val="-2.7012706607029091E-2"/>
+                  <c:x val="1.4889496951995283E-2"/>
+                  <c:y val="-5.7258218612205097E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1397,7 +1383,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{0FD644D6-CB02-496C-B48F-B301C42E0E3C}" type="CELLRANGE">
+                    <a:fld id="{DC8E7C93-D0C2-4037-ADD6-1512109C068A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1447,8 +1433,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="4.2672639006940738E-2"/>
-                      <c:h val="1.7978535730114306E-2"/>
+                      <c:w val="5.0069781320797424E-2"/>
+                      <c:h val="1.7978504664067949E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -1463,8 +1449,8 @@
               <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2827045090983609E-2"/>
-                  <c:y val="-2.2010274754439608E-2"/>
+                  <c:x val="3.1080964352903261E-2"/>
+                  <c:y val="-0.11780120029390226"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1487,7 +1473,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{F399F478-70EF-480D-B056-58EC5B24550D}" type="CELLRANGE">
+                    <a:fld id="{CF7D0E8D-045A-48EE-9783-9E2F58CDD0BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1537,8 +1523,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="4.5075603980473077E-2"/>
-                      <c:h val="1.9979476960264614E-2"/>
+                      <c:w val="6.2546832289124277E-2"/>
+                      <c:h val="1.804433096856398E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -1562,7 +1548,37 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6D9DA43-73EB-44CC-8606-F354DFB6D715}" type="CELLRANGE">
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3869624510313067E-2"/>
+                  <c:y val="-8.0038386487566292E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{14B19452-AD41-48A3-AF4D-5B9640187DA5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1583,44 +1599,6 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-8.0037649206012342E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EC2E4712-311F-418E-AF6E-B031E4F550E8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
@@ -1629,8 +1607,8 @@
               <c:idx val="23"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0091110384993337E-17"/>
-                  <c:y val="4.0018824603004705E-3"/>
+                  <c:x val="1.5718907778354808E-2"/>
+                  <c:y val="2.7223900555957997E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1653,7 +1631,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{C0CB1705-CDC7-48E4-9448-2B303E566E8E}" type="CELLRANGE">
+                    <a:fld id="{6B1C92F0-3000-4122-BF55-2AF84A2F6E0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1703,8 +1681,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="3.2359259698437066E-2"/>
-                      <c:h val="2.1980418190414925E-2"/>
+                      <c:w val="4.1605670048112671E-2"/>
+                      <c:h val="3.3591376510309891E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -1719,8 +1697,8 @@
               <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.431651087282782E-2"/>
-                  <c:y val="-4.7022118908532397E-2"/>
+                  <c:x val="-5.171360484937406E-2"/>
+                  <c:y val="-0.12442901013999365"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1743,7 +1721,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{E3AB126E-DDD8-4C93-9FF8-6F668071461B}" type="CELLRANGE">
+                    <a:fld id="{0F580937-B074-43EA-B94C-4F381F9B2713}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1793,8 +1771,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="7.7139484893258795E-2"/>
-                      <c:h val="2.1980418190414925E-2"/>
+                      <c:w val="0.10302946818326339"/>
+                      <c:h val="2.5850690703832519E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -1809,8 +1787,8 @@
               <c:idx val="25"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6348116536068387E-3"/>
-                  <c:y val="-2.6012235991954156E-2"/>
+                  <c:x val="9.4609040767303695E-3"/>
+                  <c:y val="-2.6012208950975554E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1818,7 +1796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{204EE433-D9A7-4E4E-A451-DD59F8F0B124}" type="CELLRANGE">
+                    <a:fld id="{30B90937-5E84-438C-907D-5B6BD252FAD8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1847,8 +1825,8 @@
               <c:idx val="26"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2826998398830243E-2"/>
-                  <c:y val="0.12605929749946942"/>
+                  <c:x val="6.8155991082922182E-2"/>
+                  <c:y val="0.24603998399445581"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1871,7 +1849,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{2B382C0D-974E-4952-85C3-3FC4DF16A61F}" type="CELLRANGE">
+                    <a:fld id="{F19C1469-25DE-433E-9FFB-1D3F97C1EAC9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -1921,8 +1899,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="6.5038583086511212E-2"/>
-                      <c:h val="2.3981359420565233E-2"/>
+                      <c:w val="8.2606755519145855E-2"/>
+                      <c:h val="2.3981345556709208E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -1937,8 +1915,8 @@
               <c:idx val="27"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.6413522545490587E-3"/>
-                  <c:y val="0"/>
+                  <c:x val="1.1812406084258441E-2"/>
+                  <c:y val="1.7416543064574082E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1946,7 +1924,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38287C81-41F3-4420-B9C4-1C26962D88B0}" type="CELLRANGE">
+                    <a:fld id="{83137A98-DFE9-4C21-AB2A-08E19BE1BB6C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1975,8 +1953,8 @@
               <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.4957320474188059E-2"/>
-                  <c:y val="-2.4011294761803775E-2"/>
+                  <c:x val="-5.0505163759493869E-2"/>
+                  <c:y val="-3.5622392280281107E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1984,7 +1962,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D1AC5A2-CA56-495A-A850-44095D3E683B}" type="CELLRANGE">
+                    <a:fld id="{5F0D0DDB-47F8-4E7E-AA05-84D55BB6DD2E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2013,46 +1991,8 @@
               <c:idx val="29"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="6.0028236904509256E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8B991ABF-D329-4600-A473-A2017F90A3E2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="30"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.7447652010059079E-3"/>
-                  <c:y val="-4.0018824603006171E-3"/>
+                  <c:x val="9.7036466863139343E-3"/>
+                  <c:y val="6.1155227263792376E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2075,7 +2015,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{12A3E4B3-BD54-43B2-8DD7-EFE7F432B526}" type="CELLRANGE">
+                    <a:fld id="{34E2DFF0-24F4-412E-B8E4-5FE09556019F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2125,100 +2065,24 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="2.3344100130241945E-2"/>
-                      <c:h val="2.1980418190414925E-2"/>
+                      <c:w val="3.8539063305989905E-2"/>
+                      <c:h val="2.8998620390368272E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{00000021-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="31"/>
+              <c:idx val="30"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.8088699216410322E-3"/>
-                  <c:y val="-3.4016000912555244E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5C7E17AB-7FC3-4CCA-A287-7B12EAF6CF91}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="32"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.0004706150751542E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C3417E5B-AE6C-400B-B67C-8E0DCB120ACC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="33"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.2826721990146072E-3"/>
-                  <c:y val="-3.201498090519115E-2"/>
+                  <c:x val="1.8689701261393205E-2"/>
+                  <c:y val="-1.3677776582475026E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2241,7 +2105,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{B811D0CD-3A57-471C-B01F-32BBCE239E90}" type="CELLRANGE">
+                    <a:fld id="{AFAF2006-39D6-49FC-BC18-FA714A9A753A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2291,8 +2155,174 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="4.0184374261916518E-2"/>
-                      <c:h val="1.9979476960264614E-2"/>
+                      <c:w val="4.9234036335212734E-2"/>
+                      <c:h val="3.7461719413548575E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5156478123015342E-2"/>
+                  <c:y val="-1.6599504535158103E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{54405A65-E001-499F-9CFE-C32419F5027C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.3217747061878396E-3"/>
+                  <c:y val="2.3550884190502545E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1E306DA7-110A-4564-BF44-40765C796483}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.1409391517104426E-2"/>
+                  <c:y val="-0.10651899835525665"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{986B1ACF-F170-47D9-9566-FB695FCE1125}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="6.1451100545604098E-2"/>
+                      <c:h val="1.804433096856398E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -2374,6 +2404,81 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9712984725279413E-2"/>
+                  <c:y val="-0.65048853174732568"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2000"/>
+                      <a:t>R² = 0.1161</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$35</c:f>
@@ -2422,9 +2527,6 @@
                 <c:pt idx="13">
                   <c:v>278.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>536</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>558</c:v>
                 </c:pt>
@@ -2442,9 +2544,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1149.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2189</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2638.5</c:v>
@@ -2533,9 +2632,6 @@
                 <c:pt idx="13">
                   <c:v>514650</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1821900</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>491250</c:v>
                 </c:pt>
@@ -2553,9 +2649,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>552050</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1673790</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>486930</c:v>
@@ -2645,9 +2738,6 @@
                   <c:pt idx="13">
                     <c:v>La Palma</c:v>
                   </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Laguna Beach</c:v>
-                  </c:pt>
                   <c:pt idx="15">
                     <c:v>Laguna Hills</c:v>
                   </c:pt>
@@ -2665,9 +2755,6 @@
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>Mission Viejo</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Newport Beach</c:v>
                   </c:pt>
                   <c:pt idx="22">
                     <c:v>Orange</c:v>
@@ -2821,9 +2908,6 @@
                       <c:pt idx="13">
                         <c:v>La Palma</c:v>
                       </c:pt>
-                      <c:pt idx="14">
-                        <c:v>Laguna Beach</c:v>
-                      </c:pt>
                       <c:pt idx="15">
                         <c:v>Laguna Hills</c:v>
                       </c:pt>
@@ -2841,9 +2925,6 @@
                       </c:pt>
                       <c:pt idx="20">
                         <c:v>Mission Viejo</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>Newport Beach</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>Orange</c:v>
@@ -2938,9 +3019,6 @@
                       <c:pt idx="13">
                         <c:v>514650</c:v>
                       </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1821900</c:v>
-                      </c:pt>
                       <c:pt idx="15">
                         <c:v>491250</c:v>
                       </c:pt>
@@ -2958,9 +3036,6 @@
                       </c:pt>
                       <c:pt idx="20">
                         <c:v>552050</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1673790</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>486930</c:v>
@@ -3140,7 +3215,7 @@
         <c:axId val="494640760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1850000"/>
+          <c:max val="875000"/>
           <c:min val="250000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3262,7 +3337,7 @@
         <c:crossAx val="494644368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
+        <c:majorUnit val="50000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3877,15 +3952,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
+      <xdr:colOff>323848</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4236,8 +4311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,19 +4487,12 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3">
-        <v>536</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1821900</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
         <v>558</v>
@@ -4435,7 +4503,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3">
         <v>659.5</v>
@@ -4446,7 +4514,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>126.5</v>
@@ -4457,7 +4525,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3">
         <v>934</v>
@@ -4468,7 +4536,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>284.5</v>
@@ -4479,7 +4547,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
         <v>1149.5</v>
@@ -4489,19 +4557,12 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2189</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1673790</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>2638.5</v>
@@ -4512,7 +4573,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>814.5</v>
@@ -4523,7 +4584,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>341.5</v>
@@ -4534,7 +4595,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>797.5</v>
@@ -4545,7 +4606,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>470</v>
@@ -4556,7 +4617,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>6889</v>
@@ -4567,7 +4628,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>514</v>
@@ -4578,7 +4639,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>693</v>
@@ -4589,7 +4650,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>1561</v>
@@ -4600,7 +4661,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
         <v>85</v>
@@ -4611,7 +4672,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
         <v>2586.5</v>
@@ -4622,7 +4683,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3">
         <v>795.5</v>

--- a/Zillow_Group_Temp/Median Price and Median Property Crime.xlsx
+++ b/Zillow_Group_Temp/Median Price and Median Property Crime.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alee1\Desktop\Zillow_Group_Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alee1\Desktop\homework\Zillow_Group_Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{384A6AE7-31B1-4539-A46C-7379BABF2152}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0ABEF90E-553A-43F8-B836-86E019275219}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>City</t>
   </si>
@@ -73,9 +74,6 @@
     <t>La Palma</t>
   </si>
   <si>
-    <t>Laguna Beach</t>
-  </si>
-  <si>
     <t>Laguna Hills</t>
   </si>
   <si>
@@ -94,9 +92,6 @@
     <t>Mission Viejo</t>
   </si>
   <si>
-    <t>Newport Beach</t>
-  </si>
-  <si>
     <t>Orange</t>
   </si>
   <si>
@@ -131,6 +126,81 @@
   </si>
   <si>
     <t>Yorba Linda</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
   </si>
 </sst>
 </file>
@@ -140,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +226,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -188,17 +266,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,8 +445,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0365016709159812E-2"/>
-                  <c:y val="2.4011294761803702E-2"/>
+                  <c:x val="1.6227114728636069E-2"/>
+                  <c:y val="0.1293832246091316"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -351,7 +457,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -363,10 +469,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{C34CABC6-DCB5-46B0-97BB-8EDC0A7CF06A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CDE4FCB6-B180-4420-B49E-90E83901E3D5}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -388,7 +494,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -413,8 +519,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="3.6265678064264111E-2"/>
-                      <c:h val="2.3981359420565233E-2"/>
+                      <c:w val="5.7518209162951979E-2"/>
+                      <c:h val="2.6110067141992484E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -429,8 +535,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.5654090181967162E-3"/>
-                  <c:y val="-2.8013177222104318E-2"/>
+                  <c:x val="-7.6569983585397558E-2"/>
+                  <c:y val="-5.1429153774891205E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -438,7 +544,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08D4C594-DF17-4B74-8B5F-E48C8F8A7593}" type="CELLRANGE">
+                    <a:fld id="{0C447412-07C5-4903-9A3E-E1644F724273}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -467,122 +573,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.2067612727458952E-3"/>
-                  <c:y val="4.0018824603006171E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E4FB4EBC-8483-4A32-B5D4-842860D5212F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.641352254549179E-3"/>
-                  <c:y val="-1.8008471071352776E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{86C4A996-6731-44A2-906C-65F0057F86BA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.0182220769986674E-17"/>
-                  <c:y val="-1.0004706150751542E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8DA5EF15-801C-43E4-B9EA-02E861BEE4A6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.2310083750968088E-8"/>
-                  <c:y val="1.2005726158115489E-2"/>
+                  <c:x val="2.915874643070589E-2"/>
+                  <c:y val="7.1950061121221157E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -593,7 +585,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -605,10 +597,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{366253D0-1A53-47CC-B359-4EF67024ECEE}" type="CELLRANGE">
+                    <a:fld id="{35C4DD75-B6D3-48C6-BF8B-AA1609B5205E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -630,7 +622,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -655,24 +647,24 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="2.8120435190980054E-2"/>
-                      <c:h val="1.9979476960264614E-2"/>
+                      <c:w val="4.2050486835115211E-2"/>
+                      <c:h val="3.1185818736901842E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{00000006-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.307849322885471E-2"/>
-                  <c:y val="-3.0014118452254629E-2"/>
+                  <c:x val="8.167493276354354E-3"/>
+                  <c:y val="2.6694712197241274E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -680,7 +672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5441B47-F59F-49A6-9DDF-0F5FF03AEC62}" type="CELLRANGE">
+                    <a:fld id="{C6C8C64E-B078-4058-AE17-67610A7EF6FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -701,16 +693,54 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{00000007-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.2067289626621444E-3"/>
-                  <c:y val="-3.9018353987931013E-2"/>
+                  <c:x val="1.8800334016478643E-2"/>
+                  <c:y val="1.5540026479995859E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{405E7CAD-9BFD-46D1-8BE7-0CF3B7D2FB7E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9389825799770871E-2"/>
+                  <c:y val="2.9768624372751692E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -721,7 +751,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -733,10 +763,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{8F1D343D-CDB3-439F-82AE-A1BF9D31984E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9A44E451-DBB3-4ECE-8734-112F537F0A0A}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -758,7 +788,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -783,214 +813,24 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="5.1370254496836673E-2"/>
-                      <c:h val="2.1980418190414925E-2"/>
+                      <c:w val="3.7929303792930379E-2"/>
+                      <c:h val="2.6365681737535604E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{00000009-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.2067612727452935E-4"/>
-                  <c:y val="-6.0028236904510722E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C557C3E4-BEBB-4960-9010-C8B1A2CBAFF2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.0182220769986674E-17"/>
-                  <c:y val="6.0028236904509256E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CD0DD2AD-7465-427B-9390-EB37C94149CC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.641352254549179E-3"/>
-                  <c:y val="-4.0018824603007637E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{73C93A77-5F66-4DAE-887E-48FFEF6F3567}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.641352254549179E-3"/>
-                  <c:y val="-6.0028236904509256E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{AAFE3DF4-5416-4B43-83ED-73EC5B0DE178}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.2005647380901704E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6D01B365-3940-4287-8F61-8466DE4B2278}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.4468402907023493E-2"/>
-                  <c:y val="-2.1009882916578241E-2"/>
+                  <c:x val="3.7256868549725167E-2"/>
+                  <c:y val="3.8105180126157955E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1001,7 +841,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -1013,10 +853,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{6D292732-3C41-4545-AB48-74C84AD10BE5}" type="CELLRANGE">
+                    <a:fld id="{35B6F15E-9184-45C7-BA0D-DFE846EF9220}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1038,7 +878,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -1063,62 +903,24 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="3.172326800988301E-2"/>
-                      <c:h val="2.1980418190414925E-2"/>
+                      <c:w val="6.5657048422039982E-2"/>
+                      <c:h val="2.9057093908444385E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{0000000A-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.44683810717228E-3"/>
-                  <c:y val="4.0018824603005989E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{DF44F2C7-63B0-4F0B-AAFC-A73AD5D011BA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.559284641821722E-2"/>
-                  <c:y val="3.2015059682404791E-2"/>
+                  <c:x val="1.3454499909184282E-2"/>
+                  <c:y val="-3.901835279272782E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1129,7 +931,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -1141,10 +943,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{F6330F6A-BDF2-4062-8B3C-580BD522F0BD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1778DF1D-ABA4-4660-A42E-008F12CAD206}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1166,7 +968,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -1191,24 +993,214 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="4.058657018444857E-2"/>
-                      <c:h val="1.9979476960264614E-2"/>
+                      <c:w val="7.0170557196588934E-2"/>
+                      <c:h val="2.1980340974785004E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{0000000B-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.4985300527397495E-2"/>
-                  <c:y val="-2.601223599195401E-2"/>
+                  <c:x val="1.062955824428437E-2"/>
+                  <c:y val="2.805676085519752E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{79D388A6-49E4-4B58-97DD-874013D5BD86}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9617739843282002E-2"/>
+                  <c:y val="2.7290084684696462E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E0E4CDAD-D8DD-4381-944D-A75304105A0A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6354681527748223E-2"/>
+                  <c:y val="2.3671587708575224E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C04AC8D9-5C95-4E33-B1BA-3A8B2926493D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7989493181355062E-2"/>
+                  <c:y val="1.9541861541367743E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6D7EF56C-04F0-456A-A52B-CD38050C9251}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7165522362871836E-2"/>
+                  <c:y val="-5.0241258274160653E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{34D9C362-1857-4464-B455-8B84B113658B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0190235437335929E-2"/>
+                  <c:y val="-4.5490179119623102E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1219,7 +1211,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -1231,10 +1223,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{59B8AD8D-2D6A-4A11-84A8-5B222EEDAF77}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{27AA77A2-3A14-4353-8E6B-C3712B727029}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1256,7 +1248,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -1281,24 +1273,24 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="4.7205290840834385E-2"/>
-                      <c:h val="2.3981359420565233E-2"/>
+                      <c:w val="5.6245437491689178E-2"/>
+                      <c:h val="1.9851616146327543E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{00000011-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.723419867276638E-2"/>
-                  <c:y val="3.6016942142705552E-2"/>
+                  <c:x val="2.1247145033152566E-2"/>
+                  <c:y val="8.7022103371212897E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1306,7 +1298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{922AEC3D-0510-4023-B4D7-59C037751071}" type="CELLRANGE">
+                    <a:fld id="{841F1D73-D1CB-418C-A77E-87026FC94752}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1327,54 +1319,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{00000012-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5440959945512275E-2"/>
-                  <c:y val="3.801788337285586E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F0C8EF0C-3E7F-4BA4-93D4-91F9A8F10692}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.5965856379350451E-2"/>
-                  <c:y val="-2.7012706607029091E-2"/>
+                  <c:x val="1.9146894778244206E-2"/>
+                  <c:y val="-5.6326980849689734E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1385,7 +1339,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -1397,10 +1351,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{0FD644D6-CB02-496C-B48F-B301C42E0E3C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{FD20F997-861F-4615-BDA5-B39B657AE56E}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1422,7 +1376,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -1447,24 +1401,24 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="4.2672639006940738E-2"/>
-                      <c:h val="1.7978535730114306E-2"/>
+                      <c:w val="6.4291349696639452E-2"/>
+                      <c:h val="2.2108232080620672E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{00000013-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2827045090983609E-2"/>
-                  <c:y val="-2.2010274754439608E-2"/>
+                  <c:x val="-2.0239337252639631E-2"/>
+                  <c:y val="0.10064694797011002"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1475,7 +1429,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -1487,10 +1441,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{F399F478-70EF-480D-B056-58EC5B24550D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{63349951-45F0-43C3-A160-19750BD208BE}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1512,7 +1466,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -1537,100 +1491,24 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="4.5075603980473077E-2"/>
-                      <c:h val="1.9979476960264614E-2"/>
+                      <c:w val="6.4370837586096324E-2"/>
+                      <c:h val="2.6110067141992484E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{00000014-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.44683810717228E-3"/>
-                  <c:y val="4.0018824603005989E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F6D9DA43-73EB-44CC-8606-F354DFB6D715}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-8.0037649206012342E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EC2E4712-311F-418E-AF6E-B031E4F550E8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.0091110384993337E-17"/>
-                  <c:y val="4.0018824603004705E-3"/>
+                  <c:x val="-2.5733579001245559E-2"/>
+                  <c:y val="3.9210105643417058E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1641,7 +1519,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -1653,10 +1531,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{C0CB1705-CDC7-48E4-9448-2B303E566E8E}" type="CELLRANGE">
+                    <a:fld id="{A9FFD697-A6E2-4B9C-8026-77E711AE2919}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1678,7 +1556,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -1703,24 +1581,62 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="3.2359259698437066E-2"/>
-                      <c:h val="2.1980418190414925E-2"/>
+                      <c:w val="7.1939109813898672E-2"/>
+                      <c:h val="2.692836907998692E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{00000015-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.431651087282782E-2"/>
-                  <c:y val="-4.7022118908532397E-2"/>
+                  <c:x val="2.5440959945512275E-2"/>
+                  <c:y val="3.801788337285586E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F29A5D5C-91EA-4280-9EF6-024918CA88B9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.6565689371111128E-2"/>
+                  <c:y val="-0.10045368657426668"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1731,7 +1647,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -1743,10 +1659,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{E3AB126E-DDD8-4C93-9FF8-6F668071461B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{20C11398-CE47-41EF-AEE8-18C712ADCB6D}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1768,7 +1684,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -1793,62 +1709,24 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="7.7139484893258795E-2"/>
-                      <c:h val="2.1980418190414925E-2"/>
+                      <c:w val="6.3107784677026227E-2"/>
+                      <c:h val="2.0107230741870659E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{00000017-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6348116536068387E-3"/>
-                  <c:y val="-2.6012235991954156E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{204EE433-D9A7-4E4E-A451-DD59F8F0B124}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.2826998398830243E-2"/>
-                  <c:y val="0.12605929749946942"/>
+                  <c:x val="1.2130302469762742E-2"/>
+                  <c:y val="7.791887144731253E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1859,7 +1737,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -1871,10 +1749,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{2B382C0D-974E-4952-85C3-3FC4DF16A61F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B485BEC0-15F5-4C80-B66F-0AE247D3879D}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1896,7 +1774,391 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.5075619049752214E-2"/>
+                      <c:h val="2.8494406565993061E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.351477936781991E-2"/>
+                  <c:y val="2.1031633689031597E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{66BB7E58-219B-4BDB-B488-8A3E96415420}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.452217480410258E-2"/>
+                  <c:y val="0.18783884647921484"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5CDA45F6-E532-49C9-B8E4-5B9EEB915D15}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1443649393916107E-2"/>
+                  <c:y val="-2.5561459554315969E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{0FA51130-8A71-4BB3-A0C6-3FAFE21A93CF}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1200" baseline="0"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="6.0151028277221304E-2"/>
+                      <c:h val="2.1980340974785004E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5351504457951166E-2"/>
+                  <c:y val="-9.8111586414578719E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{1CC1BDC3-EA3D-4C27-9D4C-FA24539EE76C}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1200" baseline="0"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="9.1035388008386203E-2"/>
+                      <c:h val="2.1980340974785004E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.2555630146424063E-2"/>
+                  <c:y val="-6.0071776578428507E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5B827C7C-F919-47BB-92BA-019F9CFECB27}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.6843639533556053E-2"/>
+                  <c:y val="-4.8496206763210224E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{769756D9-E2AA-4575-B80E-BF45E941180C}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1200" baseline="0"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -1937,122 +2199,8 @@
               <c:idx val="27"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.6413522545490587E-3"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{38287C81-41F3-4420-B9C4-1C26962D88B0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.4957320474188059E-2"/>
-                  <c:y val="-2.4011294761803775E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0D1AC5A2-CA56-495A-A850-44095D3E683B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="6.0028236904509256E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8B991ABF-D329-4600-A473-A2017F90A3E2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="30"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.7447652010059079E-3"/>
-                  <c:y val="-4.0018824603006171E-3"/>
+                  <c:x val="1.7608577709281505E-2"/>
+                  <c:y val="1.0645300303568006E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2063,7 +2211,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -2075,10 +2223,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{12A3E4B3-BD54-43B2-8DD7-EFE7F432B526}" type="CELLRANGE">
+                    <a:fld id="{D5DCDD5C-EC14-4C71-BA51-D306E78CFBFA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2100,7 +2248,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -2125,100 +2273,24 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="2.3344100130241945E-2"/>
-                      <c:h val="2.1980418190414925E-2"/>
+                      <c:w val="4.3275940156218863E-2"/>
+                      <c:h val="2.692836907998692E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-987E-4A0E-943E-D7BA0FB717DA}"/>
+                  <c16:uniqueId val="{0000001F-987E-4A0E-943E-D7BA0FB717DA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="31"/>
+              <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.8088699216410322E-3"/>
-                  <c:y val="-3.4016000912555244E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5C7E17AB-7FC3-4CCA-A287-7B12EAF6CF91}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="32"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.0004706150751542E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C3417E5B-AE6C-400B-B67C-8E0DCB120ACC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-987E-4A0E-943E-D7BA0FB717DA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="33"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.2826721990146072E-3"/>
-                  <c:y val="-3.201498090519115E-2"/>
+                  <c:x val="2.6231148532413207E-2"/>
+                  <c:y val="-3.3590439712417659E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2229,7 +2301,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="75000"/>
@@ -2241,10 +2313,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{B811D0CD-3A57-471C-B01F-32BBCE239E90}" type="CELLRANGE">
+                    <a:fld id="{BD508EA4-15A0-438A-8566-DBE6FEBBA738}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="1200" baseline="0"/>
                       </a:pPr>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2266,7 +2338,360 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.8416073859486021E-2"/>
+                      <c:h val="2.692836907998692E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1207274823195582E-3"/>
+                  <c:y val="4.4320050928484379E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{39364F1F-E933-4037-9D59-8FA48268A926}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr sz="1200" baseline="0"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="5.7229519618666569E-2"/>
+                      <c:h val="3.331454356535931E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0240485943258649E-2"/>
+                  <c:y val="1.5156520778617143E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{C0FE4716-FDC1-4A42-98A8-69254C20948E}" type="CELLRANGE">
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1200" baseline="0"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="7.1571024392290947E-2"/>
+                      <c:h val="2.1980340974785004E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4781270690673283E-2"/>
+                  <c:y val="-7.6590513631130203E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{CBB8D2CC-73DF-47F9-BF59-DBAD33CE6F42}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr sz="1200" baseline="0"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="6.9124983398632059E-2"/>
+                      <c:h val="2.9057093908444385E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.0004706150751542E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-987E-4A0E-943E-D7BA0FB717DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2826721990146072E-3"/>
+                  <c:y val="-3.201498090519115E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -2317,7 +2742,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2345,7 +2770,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
@@ -2376,10 +2801,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>426</c:v>
                 </c:pt>
@@ -2423,63 +2848,57 @@
                   <c:v>278.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>536</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>558</c:v>
+                  <c:v>659.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>659.5</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>126.5</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>934</c:v>
+                  <c:v>284.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>284.5</c:v>
+                  <c:v>1149.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1149.5</c:v>
+                  <c:v>2638.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2189</c:v>
+                  <c:v>814.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2638.5</c:v>
+                  <c:v>341.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>814.5</c:v>
+                  <c:v>797.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>341.5</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>797.5</c:v>
+                  <c:v>6889</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>470</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6889</c:v>
+                  <c:v>693</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>514</c:v>
+                  <c:v>1561</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>693</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1561</c:v>
+                  <c:v>2586.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2586.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>795.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2487,10 +2906,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$35</c:f>
+              <c:f>Sheet1!$C$2:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>500150</c:v>
                 </c:pt>
@@ -2534,63 +2953,57 @@
                   <c:v>514650</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1821900</c:v>
+                  <c:v>491250</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>491250</c:v>
+                  <c:v>629850</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>629850</c:v>
+                  <c:v>447750</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>447750</c:v>
+                  <c:v>544175</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>544175</c:v>
+                  <c:v>742400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>742400</c:v>
+                  <c:v>552050</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>552050</c:v>
+                  <c:v>486930</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1673790</c:v>
+                  <c:v>501300</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>486930</c:v>
+                  <c:v>509850</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>501300</c:v>
+                  <c:v>689616.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>509850</c:v>
+                  <c:v>548750</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>689616.66666666663</c:v>
+                  <c:v>380180</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>548750</c:v>
+                  <c:v>792550</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>380180</c:v>
+                  <c:v>367250</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>792550</c:v>
+                  <c:v>554450</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>367250</c:v>
+                  <c:v>843950</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>554450</c:v>
+                  <c:v>430750</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>843950</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>430750</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>591300</c:v>
                 </c:pt>
               </c:numCache>
@@ -2600,9 +3013,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet1!$A$2:$A$35</c15:f>
+                <c15:f>Sheet1!$A$2:$A$33</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="34"/>
+                  <c:ptCount val="32"/>
                   <c:pt idx="0">
                     <c:v>Aliso Viejo</c:v>
                   </c:pt>
@@ -2646,63 +3059,57 @@
                     <c:v>La Palma</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Laguna Beach</c:v>
+                    <c:v>Laguna Hills</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Laguna Hills</c:v>
+                    <c:v>Laguna Niguel</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Laguna Niguel</c:v>
+                    <c:v>Laguna Woods</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Laguna Woods</c:v>
+                    <c:v>Lake Forest</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Lake Forest</c:v>
+                    <c:v>Los Alamitos</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Los Alamitos</c:v>
+                    <c:v>Mission Viejo</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Mission Viejo</c:v>
+                    <c:v>Orange</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Newport Beach</c:v>
+                    <c:v>Placentia</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Orange</c:v>
+                    <c:v>Rancho Santa Margarita</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Placentia</c:v>
+                    <c:v>San Clemente</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Rancho Santa Margarita</c:v>
+                    <c:v>San Juan Capistrano</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>San Clemente</c:v>
+                    <c:v>Santa Ana</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>San Juan Capistrano</c:v>
+                    <c:v>Seal Beach</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Santa Ana</c:v>
+                    <c:v>Stanton</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Seal Beach</c:v>
+                    <c:v>Tustin</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>Stanton</c:v>
+                    <c:v>Villa Park</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Tustin</c:v>
+                    <c:v>Westminster</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>Villa Park</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Westminster</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
                     <c:v>Yorba Linda</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -2773,12 +3180,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$35</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$33</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="34"/>
+                      <c:ptCount val="32"/>
                       <c:pt idx="0">
                         <c:v>Aliso Viejo</c:v>
                       </c:pt>
@@ -2822,63 +3229,57 @@
                         <c:v>La Palma</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>Laguna Beach</c:v>
+                        <c:v>Laguna Hills</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>Laguna Hills</c:v>
+                        <c:v>Laguna Niguel</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>Laguna Niguel</c:v>
+                        <c:v>Laguna Woods</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>Laguna Woods</c:v>
+                        <c:v>Lake Forest</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>Lake Forest</c:v>
+                        <c:v>Los Alamitos</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>Los Alamitos</c:v>
+                        <c:v>Mission Viejo</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>Mission Viejo</c:v>
+                        <c:v>Orange</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>Newport Beach</c:v>
+                        <c:v>Placentia</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>Orange</c:v>
+                        <c:v>Rancho Santa Margarita</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>Placentia</c:v>
+                        <c:v>San Clemente</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>Rancho Santa Margarita</c:v>
+                        <c:v>San Juan Capistrano</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>San Clemente</c:v>
+                        <c:v>Santa Ana</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>San Juan Capistrano</c:v>
+                        <c:v>Seal Beach</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>Santa Ana</c:v>
+                        <c:v>Stanton</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>Seal Beach</c:v>
+                        <c:v>Tustin</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>Stanton</c:v>
+                        <c:v>Villa Park</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>Tustin</c:v>
+                        <c:v>Westminster</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>Villa Park</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>Westminster</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
                         <c:v>Yorba Linda</c:v>
                       </c:pt>
                     </c:strCache>
@@ -2889,13 +3290,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$2:$C$35</c15:sqref>
+                          <c15:sqref>Sheet1!$C$2:$C$33</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>"$"#,##0</c:formatCode>
-                      <c:ptCount val="34"/>
+                      <c:ptCount val="32"/>
                       <c:pt idx="0">
                         <c:v>500150</c:v>
                       </c:pt>
@@ -2939,63 +3340,57 @@
                         <c:v>514650</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>1821900</c:v>
+                        <c:v>491250</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>491250</c:v>
+                        <c:v>629850</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>629850</c:v>
+                        <c:v>447750</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>447750</c:v>
+                        <c:v>544175</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>544175</c:v>
+                        <c:v>742400</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>742400</c:v>
+                        <c:v>552050</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>552050</c:v>
+                        <c:v>486930</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>1673790</c:v>
+                        <c:v>501300</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>486930</c:v>
+                        <c:v>509850</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>501300</c:v>
+                        <c:v>689616.66666666663</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>509850</c:v>
+                        <c:v>548750</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>689616.66666666663</c:v>
+                        <c:v>380180</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>548750</c:v>
+                        <c:v>792550</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>380180</c:v>
+                        <c:v>367250</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>792550</c:v>
+                        <c:v>554450</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>367250</c:v>
+                        <c:v>843950</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>554450</c:v>
+                        <c:v>430750</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>843950</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>430750</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
                         <c:v>591300</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3140,8 +3535,8 @@
         <c:axId val="494640760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1850000"/>
-          <c:min val="250000"/>
+          <c:max val="850000"/>
+          <c:min val="350000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3262,7 +3657,7 @@
         <c:crossAx val="494644368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
+        <c:majorUnit val="50000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3884,7 +4279,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4233,11 +4628,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C169A2-2403-4CE9-9573-5AF73B9249BF}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.34079822595868792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.11614343081658891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8.6681545177141883E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4">
+        <v>117492.76313991434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>54419725427.01825</v>
+      </c>
+      <c r="D12" s="4">
+        <v>54419725427.01825</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.9421587687205748</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.6297223687230669E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4">
+        <v>414136481707.56049</v>
+      </c>
+      <c r="D13" s="4">
+        <v>13804549390.252016</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <v>468556207134.57874</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4">
+        <v>584246.3658347663</v>
+      </c>
+      <c r="C17" s="4">
+        <v>28157.827131431652</v>
+      </c>
+      <c r="D17" s="4">
+        <v>20.748986173815641</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.4073149358183367E-19</v>
+      </c>
+      <c r="F17" s="4">
+        <v>526740.41105495172</v>
+      </c>
+      <c r="G17" s="4">
+        <v>641752.32061458088</v>
+      </c>
+      <c r="H17" s="4">
+        <v>526740.41105495172</v>
+      </c>
+      <c r="I17" s="4">
+        <v>641752.32061458088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="5">
+        <v>-20.953217554353969</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10.553187796328611</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-1.9854870356465621</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5.6297223687230641E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>-42.50570231697025</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.59926720826231161</v>
+      </c>
+      <c r="H18" s="5">
+        <v>-42.50570231697025</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.59926720826231161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,10 +5049,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="3">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="C16" s="2">
-        <v>1821900</v>
+        <v>491250</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4427,10 +5060,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="3">
-        <v>558</v>
+        <v>659.5</v>
       </c>
       <c r="C17" s="2">
-        <v>491250</v>
+        <v>629850</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4438,10 +5071,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="3">
-        <v>659.5</v>
+        <v>126.5</v>
       </c>
       <c r="C18" s="2">
-        <v>629850</v>
+        <v>447750</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4449,10 +5082,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="3">
-        <v>126.5</v>
+        <v>934</v>
       </c>
       <c r="C19" s="2">
-        <v>447750</v>
+        <v>544175</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4460,10 +5093,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="3">
-        <v>934</v>
+        <v>284.5</v>
       </c>
       <c r="C20" s="2">
-        <v>544175</v>
+        <v>742400</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4471,10 +5104,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="3">
-        <v>284.5</v>
+        <v>1149.5</v>
       </c>
       <c r="C21" s="2">
-        <v>742400</v>
+        <v>552050</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4482,10 +5115,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="3">
-        <v>1149.5</v>
+        <v>2638.5</v>
       </c>
       <c r="C22" s="2">
-        <v>552050</v>
+        <v>486930</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4493,10 +5126,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="3">
-        <v>2189</v>
+        <v>814.5</v>
       </c>
       <c r="C23" s="2">
-        <v>1673790</v>
+        <v>501300</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4504,10 +5137,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="3">
-        <v>2638.5</v>
+        <v>341.5</v>
       </c>
       <c r="C24" s="2">
-        <v>486930</v>
+        <v>509850</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4515,10 +5148,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="3">
-        <v>814.5</v>
+        <v>797.5</v>
       </c>
       <c r="C25" s="2">
-        <v>501300</v>
+        <v>689616.66666666663</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4526,10 +5159,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="3">
-        <v>341.5</v>
+        <v>470</v>
       </c>
       <c r="C26" s="2">
-        <v>509850</v>
+        <v>548750</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4537,10 +5170,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="3">
-        <v>797.5</v>
+        <v>6889</v>
       </c>
       <c r="C27" s="2">
-        <v>689616.66666666663</v>
+        <v>380180</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4548,10 +5181,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="3">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="C28" s="2">
-        <v>548750</v>
+        <v>792550</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4559,10 +5192,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="3">
-        <v>6889</v>
+        <v>693</v>
       </c>
       <c r="C29" s="2">
-        <v>380180</v>
+        <v>367250</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4570,10 +5203,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="3">
-        <v>514</v>
+        <v>1561</v>
       </c>
       <c r="C30" s="2">
-        <v>792550</v>
+        <v>554450</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4581,10 +5214,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="3">
-        <v>693</v>
+        <v>85</v>
       </c>
       <c r="C31" s="2">
-        <v>367250</v>
+        <v>843950</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4592,10 +5225,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="3">
-        <v>1561</v>
+        <v>2586.5</v>
       </c>
       <c r="C32" s="2">
-        <v>554450</v>
+        <v>430750</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4603,31 +5236,9 @@
         <v>34</v>
       </c>
       <c r="B33" s="3">
-        <v>85</v>
+        <v>795.5</v>
       </c>
       <c r="C33" s="2">
-        <v>843950</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="3">
-        <v>2586.5</v>
-      </c>
-      <c r="C34" s="2">
-        <v>430750</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="3">
-        <v>795.5</v>
-      </c>
-      <c r="C35" s="2">
         <v>591300</v>
       </c>
     </row>
